--- a/data/outputs/数学期刊(下)_altmetric/63Complex Analysis and Operator Theory.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/63Complex Analysis and Operator Theory.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE82"/>
+  <dimension ref="A1:CF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1264,6 +1272,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1522,6 +1533,9 @@
       </c>
       <c r="CE4" t="n">
         <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1768,6 +1782,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2025,6 +2042,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2268,6 +2288,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2511,6 +2534,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2764,6 +2790,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3007,6 +3036,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3258,6 +3290,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3507,6 +3542,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3754,6 +3792,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3997,6 +4038,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4230,6 +4274,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4475,6 +4522,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4732,6 +4782,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4989,6 +5042,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5240,6 +5296,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5483,6 +5542,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5736,6 +5798,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5985,6 +6050,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6234,6 +6302,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6493,6 +6564,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6738,6 +6812,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6995,6 +7072,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7245,6 +7325,9 @@
       </c>
       <c r="CE27" t="n">
         <v>0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="28">
@@ -7485,6 +7568,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7720,6 +7806,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7973,6 +8062,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8226,6 +8318,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8480,6 +8575,9 @@
       </c>
       <c r="CE32" t="n">
         <v>0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="33">
@@ -8722,6 +8820,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8971,6 +9072,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9214,6 +9318,9 @@
         <v>0</v>
       </c>
       <c r="CE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9453,6 +9560,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9710,6 +9820,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9959,6 +10072,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10214,6 +10330,9 @@
         <v>0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10461,6 +10580,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10708,6 +10830,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10951,6 +11076,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11200,6 +11328,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11447,6 +11578,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11690,6 +11824,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11931,6 +12068,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12172,6 +12312,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12409,6 +12552,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12650,6 +12796,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12889,6 +13038,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13128,6 +13280,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13369,6 +13524,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13624,6 +13782,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13867,6 +14028,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14118,6 +14282,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14363,6 +14530,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14608,6 +14778,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14857,6 +15030,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15104,6 +15280,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15347,6 +15526,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15586,6 +15768,9 @@
         <v>0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15825,6 +16010,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16068,6 +16256,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16311,6 +16502,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16558,6 +16752,9 @@
         <v>0</v>
       </c>
       <c r="CE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16801,6 +16998,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17040,6 +17240,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17275,6 +17478,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17534,6 +17740,9 @@
         <v>0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17773,6 +17982,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18022,6 +18234,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18271,6 +18486,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18516,6 +18734,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18761,6 +18982,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19014,6 +19238,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19273,6 +19500,9 @@
         <v>0</v>
       </c>
       <c r="CE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19512,6 +19742,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19759,6 +19992,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19998,6 +20234,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20249,6 +20488,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20492,6 +20734,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20729,6 +20974,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
